--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeym\OneDrive\Documents\UiPath\Connected Office Web Application-User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6C812-D0E7-42CA-AC11-5EDC6F6BD349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7AA6AC-E033-44DE-8A5D-8BE6B95CA18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="C16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
